--- a/forecast_summary_B07HRZKPXM.xlsx
+++ b/forecast_summary_B07HRZKPXM.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>3.607590966330585</v>
       </c>
       <c r="D2" t="n">
-        <v>3.607590969275245</v>
+        <v>3.607590974860349</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>5.010666410342576</v>
       </c>
       <c r="D3" t="n">
-        <v>5.010666487476385</v>
+        <v>5.010666500707149</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>9.525488487089525</v>
       </c>
       <c r="D4" t="n">
-        <v>9.525488873282301</v>
+        <v>9.525488924463264</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>11.3755082852048</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3755092187531</v>
+        <v>11.37550926587237</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>6.194708291012297</v>
       </c>
       <c r="D6" t="n">
-        <v>6.194709208321934</v>
+        <v>6.194709179876636</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-2.240825349083944</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.240824815277689</v>
+        <v>-2.240824806690302</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-6.318506673550711</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.31850446340679</v>
+        <v>-6.318504361818259</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-3.739973138554735</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.73997124097671</v>
+        <v>-3.739971138775489</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>0.6450799225583671</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6450804190370774</v>
+        <v>0.6450803510844326</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>1.813386657217448</v>
       </c>
       <c r="D11" t="n">
-        <v>1.813388753424842</v>
+        <v>1.813388504993438</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>0.2734369969770613</v>
       </c>
       <c r="D12" t="n">
-        <v>0.273437495176878</v>
+        <v>0.2734374279013482</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-0.4982417272077994</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4982402117183895</v>
+        <v>-0.498240162825387</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>0.1775489095467717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1775502521591823</v>
+        <v>0.1775500293635671</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.08556439872848438</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08555462807327602</v>
+        <v>-0.08555627422227145</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-1.889703411653111</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.889688035175446</v>
+        <v>-1.889690198997574</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-2.27847413724959</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.27846324150174</v>
+        <v>-2.278464864164348</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.6547120327657747</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6547142818171181</v>
+        <v>0.6547143780867247</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>3.604141718229658</v>
       </c>
       <c r="D19" t="n">
-        <v>3.604151973286463</v>
+        <v>3.604152491251572</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>1.325790809043032</v>
       </c>
       <c r="D20" t="n">
-        <v>1.325794118308944</v>
+        <v>1.325794295777129</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-6.231560506353981</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.231545941976258</v>
+        <v>-6.231547897309466</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z390 AORUS PRO WIFI</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
